--- a/data/furst1/KCOR_summary.xlsx
+++ b/data/furst1/KCOR_summary.xlsx
@@ -8,9 +8,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_13" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_24" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_20" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_24" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_30" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,136 +491,113 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ASMR (direct)</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.1572</t>
+          <t>0.1513</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.084</t>
+          <t>0.062</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.293</t>
+          <t>0.372</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.1572</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.064</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.386</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2 vs 0</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2 vs 0</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2 vs 1</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2 vs 1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -697,17 +676,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0706</t>
+          <t>0.9402</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.034</t>
+          <t>0.891</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.108</t>
+          <t>0.992</t>
         </is>
       </c>
     </row>
@@ -720,17 +699,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.0706</t>
+          <t>0.9402</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.034</t>
+          <t>0.889</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.109</t>
+          <t>0.994</t>
         </is>
       </c>
     </row>
@@ -829,6 +808,412 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dose_Combination</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>YearOfBirth</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>KCOR</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CI_Lower</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CI_Upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Reporting date: 2022-11-28</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 vs 0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ASMR (direct)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1.0569</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.021</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.094</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.0569</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.020</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.095</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2 vs 0</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2 vs 1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dose_Combination</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>YearOfBirth</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>KCOR</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CI_Lower</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CI_Upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Reporting date: 2022-11-28</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 vs 0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ASMR (direct)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.9907</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.953</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.9907</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.952</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.031</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2 vs 0</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2 vs 1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -900,17 +1285,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9183</t>
+          <t>0.9694</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.869</t>
+          <t>0.916</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.971</t>
+          <t>1.026</t>
         </is>
       </c>
     </row>
@@ -923,17 +1308,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9183</t>
+          <t>0.9694</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.866</t>
+          <t>0.913</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.973</t>
+          <t>1.029</t>
         </is>
       </c>
     </row>
@@ -1154,13 +1539,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,12 +1606,12 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ASMR (direct)</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.8999</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1242,402 +1627,379 @@
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.8999</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.605</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.338</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2 vs 0</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2 vs 0</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2 vs 1</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2 vs 1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3 vs 0</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3 vs 0</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3 vs 1</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3 vs 1</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3 vs 2</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3 vs 2</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4 vs 0</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>4 vs 0</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4 vs 1</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>4 vs 1</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4 vs 2</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>4 vs 2</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4 vs 3</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>4 vs 3</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
